--- a/Project Documentation Group 3/Group_3_Sprint_Backlog.xlsx
+++ b/Project Documentation Group 3/Group_3_Sprint_Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronsc_000\Documents\GitHub\PotatoApp\Paperwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronsc_000\Documents\GitHub\PotatoApp\Project Documentation Group 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="643" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="643" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -312,42 +312,6 @@
     <t>Accepted?</t>
   </si>
   <si>
-    <t>The administrator can add new items to the database. When checking for updates, the user is prompted to synchronize the latest changes.</t>
-  </si>
-  <si>
-    <t>The administrator can delete a item from the database. When checking for updates, the user is prompted to synchronize the latest changes which will also delete marked items.</t>
-  </si>
-  <si>
-    <t>The administrator can edit a item in the database. When checking for updates, the user is prompted to synchronize the latest changes which will also change the edited items as they will have a later timestamp.</t>
-  </si>
-  <si>
-    <t>The administrator can define the menu path for a item and thereby define the menu structure. It is also possible to have multiple paths for a item, enabling a search for a item by different symptoms.</t>
-  </si>
-  <si>
-    <t>The user can filter the data set and define the granularity of the data presented until the requested item is found in the application. Since each submenu can have several further submenus, the data set can be enormous, with only few submenus to eliminate invalid responses.</t>
-  </si>
-  <si>
-    <t>The user can find links to further information within the information page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user can check for updates via the main menu screen and start the download of the update if there is a newer version available. </t>
-  </si>
-  <si>
-    <t>As a Developer, I want to be able to scale the application to future growth and research so that the appliaction can be kept up to date throughout time.</t>
-  </si>
-  <si>
-    <t>Because of the very broad search criteria in the menu, it is possibel for the user to select a narrow choice of items from a potentially very large data set. This means that, even though the current data sets hardly exceeds 20, the navigation for 100 items will not be any more difficult and chosing the correct item will not take more time.</t>
-  </si>
-  <si>
-    <t>As a Developer, I want to be able to update the user application where changes occured, avoiding a complete download of all the data and enabling selective updates so that only the new data is downloaded in a update.</t>
-  </si>
-  <si>
-    <t>Each item has a timestamp which is hidden from the user, which indicates whether the item was added prior of after the user downloaded data the last time. The user then only downloads the data which is not already on the user smartphone and therefore saves a lot of time and data traffic. </t>
-  </si>
-  <si>
-    <t>THe user interface is built automatically after a update and therefore a perfect match of the databases model of the data. The design is item-oriented and with the dynamic creation of the menu path, adapts to any changes instantly without leaving any traces of former items or designs which could depreciate the user experience.</t>
-  </si>
-  <si>
     <t>Comments for next Sprint:</t>
   </si>
   <si>
@@ -424,6 +388,306 @@
   </si>
   <si>
     <t>RS,SL,KM,TB</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As an Administrator, I want to be able to add items to the system so that users can update their app to incorporate new items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>The testing should continue providing that all the acceptance tests have been passed and approved by the client</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As an Administrator, I want to be able to delete items from the system so that users can update their app to delete faulty or obsolete items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As an Administrator, I want to be able to edit content in the system so that users can update their app to include changes made to the system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As an Administrator, I want to be able to define a menu structure which enables the user to navigate the content easily so that the search time is minimized and ideally logarithmically proportionate to the data size.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a User, I want to be able to navigate through a menu structure to diagnose my problem so that I can find the advice I need within the application.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a User, I want to be able to find further information on the subject so that I can further educate myself if the information in the application is insufficient.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a User, I want to be able to check for updates and update the application so that I can benefit from the latest updates and additions to the database.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a Developer, I want to be able to scale the application to future growth and research so that the application can be kept up to date throughout time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a Developer, I want to be able to update the user application where changes occurred, avoiding a complete download of all the data and enabling selective updates so that only the new data is downloaded in an update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a Developer, I want to be able to create a dynamically synchronized user interface which adapts to the data structure of the downloaded data so that future changes don't interfere with the application design and allow long term scalability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a web app, User can add new problems and symptoms, Database is populated with new data</t>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a web app, User can delete selected problems and symptoms, Database is updated with deleted field</t>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a web app, User can edit selected problems and symptoms,  User is taken to edit page, Fields are populated with current information about the problem, Database is updated with new data field</t>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a SDK app,  XML protocol successfully converts data into a package</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a SDK app, User can navigate through the menu system fast, Allocated memory allows a fast navigation system</t>
+    </r>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a SDK app, User can navigate through the menu system that displays different symptoms, User can diagnose their potato problem</t>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a SDK app, User can navigate through the menu system that displays different symptoms,  User can diagnose their potato problem</t>
+  </si>
+  <si>
+    <t>Application of a whole compiles, free of errors, Code compiles and application can be ran as a SDK app, User can download updates using the download button on the main menu to update the app, App compares current version number to new version number within the database, App downloads new data applying the version number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Application updates successfully through application xml parsing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Application updates successfully through application xml parsing,  Application new data download is compared with the databases current date stamp and the applications database current time stamp successfully</t>
+    </r>
+  </si>
+  <si>
+    <t>Application downloadable dynamic XML content successfully updates</t>
   </si>
 </sst>
 </file>
@@ -434,7 +698,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,6 +759,38 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -522,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -666,11 +962,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -743,9 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -824,19 +1128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -844,6 +1136,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,8 +1157,41 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,6 +1246,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -925,64 +1284,71 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Date</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>Burndown</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint Backlog'!$F$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy;@</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>41899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41911</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Sprint Backlog'!$F$40:$R$40</c:f>
@@ -1041,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368455984"/>
-        <c:axId val="368461864"/>
+        <c:axId val="320044408"/>
+        <c:axId val="320043232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368455984"/>
+        <c:axId val="320044408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,73 +1431,17 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="[$-407]d/\ mmm/\ yyyy;@" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d/yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1158,13 +1468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368461864"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="320043232"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368461864"/>
+        <c:axId val="320043232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,70 +1493,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1271,7 +1530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368455984"/>
+        <c:crossAx val="320044408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1361,7 +1620,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1372,7 +1631,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1385,11 +1644,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1402,7 +1661,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1418,7 +1677,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1462,20 +1721,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1484,13 +1743,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1502,31 +1761,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1566,22 +1824,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1628,8 +1887,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1680,8 +1945,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1719,20 +1984,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1745,17 +2010,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1787,7 +2041,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1796,13 +2050,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1823,19 +2078,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1849,6 +2105,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1856,8 +2123,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1867,19 +2140,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2202,31 +2475,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2237,10 +2510,10 @@
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11">
@@ -2257,7 +2530,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2280,10 +2553,10 @@
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="11">
@@ -2300,7 +2573,7 @@
         <v>70</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1"/>
@@ -2323,10 +2596,10 @@
       <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="11"/>
@@ -2341,7 +2614,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -2362,11 +2635,11 @@
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>125</v>
+      <c r="C5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -2379,7 +2652,7 @@
         <v>80</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="1"/>
@@ -2400,11 +2673,11 @@
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>127</v>
+      <c r="C6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -2417,7 +2690,7 @@
         <v>80</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="1"/>
@@ -2438,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2453,7 +2726,7 @@
         <v>80</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
@@ -2751,10 +3024,10 @@
         <v>23</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="2">
@@ -2768,7 +3041,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="1"/>
@@ -4949,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="D27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4964,271 +5237,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="34" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="35">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(F5,2)))</f>
         <v>41899</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(G5,2)))</f>
         <v>41900</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(H5,2)))</f>
         <v>41901</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(I5,2)))</f>
         <v>41904</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(J5,2)))</f>
         <v>41905</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(K5,2)))</f>
         <v>41906</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(L5,2)))</f>
         <v>41907</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(M5,2)))</f>
         <v>41908</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(N5,2)))</f>
         <v>41911</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(O5,2)))</f>
         <v>41912</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(P5,2)))</f>
         <v>41913</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(Q5,2)))</f>
         <v>41914</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="34">
         <f>WORKDAY('Configuration Details'!$B$1,INT(RIGHT(R5,2)))</f>
         <v>41915</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41" t="str">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="str">
         <f t="shared" ref="F8:O8" si="0">F5</f>
         <v>Day 0</v>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 1</v>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 2</v>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 3</v>
       </c>
-      <c r="J8" s="41" t="str">
+      <c r="J8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 4</v>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 5</v>
       </c>
-      <c r="L8" s="41" t="str">
+      <c r="L8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 6</v>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 7</v>
       </c>
-      <c r="N8" s="41" t="str">
+      <c r="N8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 8</v>
       </c>
-      <c r="O8" s="41" t="str">
+      <c r="O8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Day 9</v>
       </c>
-      <c r="P8" s="41" t="str">
+      <c r="P8" s="40" t="str">
         <f t="shared" ref="P8:Q8" si="1">P5</f>
         <v>Day 10</v>
       </c>
-      <c r="Q8" s="41" t="str">
+      <c r="Q8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Day 11</v>
       </c>
-      <c r="R8" s="41" t="str">
+      <c r="R8" s="40" t="str">
         <f t="shared" ref="R8" si="2">R5</f>
         <v>Day 12</v>
       </c>
@@ -5237,53 +5510,53 @@
       <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <v>5</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="42">
+      <c r="E9" s="44"/>
+      <c r="F9" s="41">
         <v>5</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>2</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>8</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="41">
         <v>8</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>8</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>8</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="41">
         <v>8</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="41">
         <v>8</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="41">
         <v>8</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="41">
         <v>4</v>
       </c>
-      <c r="P9" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>0</v>
-      </c>
-      <c r="R9" s="42">
+      <c r="P9" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="41">
+        <v>0</v>
+      </c>
+      <c r="R9" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5291,53 +5564,53 @@
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="42">
+      <c r="E10" s="44"/>
+      <c r="F10" s="41">
         <v>5</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>3</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>8</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="41">
         <v>5</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <v>2</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <v>8</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="41">
         <v>8</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="41">
         <v>6</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="41">
         <v>4</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="41">
         <v>3</v>
       </c>
-      <c r="P10" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="42">
-        <v>0</v>
-      </c>
-      <c r="R10" s="42">
+      <c r="P10" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>0</v>
+      </c>
+      <c r="R10" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5345,53 +5618,53 @@
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>15</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="42">
+      <c r="E11" s="44"/>
+      <c r="F11" s="41">
         <v>15</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>15</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <v>8</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <v>6</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>5</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>3</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="41">
         <v>4</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="41">
         <v>5</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="41">
         <v>3</v>
       </c>
-      <c r="O11" s="42">
-        <v>0</v>
-      </c>
-      <c r="P11" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="42">
-        <v>0</v>
-      </c>
-      <c r="R11" s="42">
+      <c r="O11" s="41">
+        <v>0</v>
+      </c>
+      <c r="P11" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="41">
+        <v>0</v>
+      </c>
+      <c r="R11" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5399,53 +5672,53 @@
       <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="41">
         <v>9</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="42">
+      <c r="E12" s="44"/>
+      <c r="F12" s="41">
         <v>9</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>9</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <v>4</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <v>5</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <v>3</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>5</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="41">
         <v>7</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="41">
         <v>3</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="41">
         <v>4</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="41">
         <v>2</v>
       </c>
-      <c r="P12" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>0</v>
-      </c>
-      <c r="R12" s="42">
+      <c r="P12" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>0</v>
+      </c>
+      <c r="R12" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5453,53 +5726,53 @@
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <v>30</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="42">
+      <c r="E13" s="44"/>
+      <c r="F13" s="41">
         <v>30</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>25</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>4</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="41">
         <v>8</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <v>3</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <v>9</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="41">
         <v>7</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="41">
         <v>9</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="41">
         <v>9</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="41">
         <v>5</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="41">
         <v>3</v>
       </c>
-      <c r="Q13" s="42">
-        <v>0</v>
-      </c>
-      <c r="R13" s="42">
+      <c r="Q13" s="41">
+        <v>0</v>
+      </c>
+      <c r="R13" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5507,53 +5780,53 @@
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="42">
+      <c r="E14" s="44"/>
+      <c r="F14" s="41">
         <v>1</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>1</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>4</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <v>7</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>6</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="41">
         <v>8</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="41">
         <v>8</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="41">
         <v>9</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="41">
         <v>9</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="41">
         <v>4</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="41">
         <v>4</v>
       </c>
-      <c r="Q14" s="42">
-        <v>0</v>
-      </c>
-      <c r="R14" s="42">
+      <c r="Q14" s="41">
+        <v>0</v>
+      </c>
+      <c r="R14" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5561,79 +5834,79 @@
       <c r="A15" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>1</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="42">
+      <c r="E16" s="44"/>
+      <c r="F16" s="41">
         <v>1</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>1</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>8</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="41">
         <v>3</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>1</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <v>1</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="41">
         <v>1</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="41">
         <v>1</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="41">
         <v>1</v>
       </c>
-      <c r="O16" s="42">
-        <v>0</v>
-      </c>
-      <c r="P16" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="42">
-        <v>0</v>
-      </c>
-      <c r="R16" s="42">
+      <c r="O16" s="41">
+        <v>0</v>
+      </c>
+      <c r="P16" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>0</v>
+      </c>
+      <c r="R16" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5641,79 +5914,79 @@
       <c r="A17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>1</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="42">
+      <c r="E18" s="44"/>
+      <c r="F18" s="41">
         <v>1</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <v>1</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>8</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="41">
         <v>5</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <v>1</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="41">
         <v>1</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="41">
         <v>1</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="41">
         <v>1</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="41">
         <v>1</v>
       </c>
-      <c r="O18" s="42">
-        <v>0</v>
-      </c>
-      <c r="P18" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>0</v>
-      </c>
-      <c r="R18" s="42">
+      <c r="O18" s="41">
+        <v>0</v>
+      </c>
+      <c r="P18" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>0</v>
+      </c>
+      <c r="R18" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5721,77 +5994,77 @@
       <c r="A19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>5</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="42">
+      <c r="E20" s="44"/>
+      <c r="F20" s="41">
         <v>5</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="41">
         <v>4</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>8</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="41">
         <v>7</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>4</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="41">
         <v>5</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="41">
         <v>6</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="41">
         <v>4</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="41">
         <v>2</v>
       </c>
-      <c r="O20" s="42">
-        <v>0</v>
-      </c>
-      <c r="P20" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>0</v>
-      </c>
-      <c r="R20" s="42">
+      <c r="O20" s="41">
+        <v>0</v>
+      </c>
+      <c r="P20" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>0</v>
+      </c>
+      <c r="R20" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5799,53 +6072,53 @@
       <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>10</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="42">
+      <c r="E21" s="44"/>
+      <c r="F21" s="41">
         <v>10</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="41">
         <v>10</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>10</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="41">
         <v>10</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>10</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <v>4</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="41">
         <v>4</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="41">
         <v>2</v>
       </c>
-      <c r="N21" s="42">
-        <v>0</v>
-      </c>
-      <c r="O21" s="42">
-        <v>0</v>
-      </c>
-      <c r="P21" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="42">
-        <v>0</v>
-      </c>
-      <c r="R21" s="42">
+      <c r="N21" s="41">
+        <v>0</v>
+      </c>
+      <c r="O21" s="41">
+        <v>0</v>
+      </c>
+      <c r="P21" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>0</v>
+      </c>
+      <c r="R21" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5853,77 +6126,77 @@
       <c r="A22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
     </row>
     <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>1</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="42">
+      <c r="E23" s="44"/>
+      <c r="F23" s="41">
         <v>1</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="41">
         <v>1</v>
       </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0</v>
-      </c>
-      <c r="J23" s="42">
-        <v>0</v>
-      </c>
-      <c r="K23" s="42">
-        <v>0</v>
-      </c>
-      <c r="L23" s="42">
-        <v>0</v>
-      </c>
-      <c r="M23" s="42">
-        <v>0</v>
-      </c>
-      <c r="N23" s="42">
-        <v>0</v>
-      </c>
-      <c r="O23" s="42">
-        <v>0</v>
-      </c>
-      <c r="P23" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="42">
-        <v>0</v>
-      </c>
-      <c r="R23" s="42">
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0</v>
+      </c>
+      <c r="J23" s="41">
+        <v>0</v>
+      </c>
+      <c r="K23" s="41">
+        <v>0</v>
+      </c>
+      <c r="L23" s="41">
+        <v>0</v>
+      </c>
+      <c r="M23" s="41">
+        <v>0</v>
+      </c>
+      <c r="N23" s="41">
+        <v>0</v>
+      </c>
+      <c r="O23" s="41">
+        <v>0</v>
+      </c>
+      <c r="P23" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>0</v>
+      </c>
+      <c r="R23" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5931,53 +6204,53 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <v>2</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="44" t="s">
+      <c r="C24" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="42">
+      <c r="E24" s="44"/>
+      <c r="F24" s="41">
         <v>2</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="41">
         <v>2</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>5</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <v>2</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>1</v>
       </c>
-      <c r="K24" s="42">
-        <v>0</v>
-      </c>
-      <c r="L24" s="42">
-        <v>0</v>
-      </c>
-      <c r="M24" s="42">
-        <v>0</v>
-      </c>
-      <c r="N24" s="42">
-        <v>0</v>
-      </c>
-      <c r="O24" s="42">
-        <v>0</v>
-      </c>
-      <c r="P24" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="42">
-        <v>0</v>
-      </c>
-      <c r="R24" s="42">
+      <c r="K24" s="41">
+        <v>0</v>
+      </c>
+      <c r="L24" s="41">
+        <v>0</v>
+      </c>
+      <c r="M24" s="41">
+        <v>0</v>
+      </c>
+      <c r="N24" s="41">
+        <v>0</v>
+      </c>
+      <c r="O24" s="41">
+        <v>0</v>
+      </c>
+      <c r="P24" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>0</v>
+      </c>
+      <c r="R24" s="41">
         <v>0</v>
       </c>
     </row>
@@ -5985,53 +6258,53 @@
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="41">
         <v>2</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="42">
+      <c r="E25" s="44"/>
+      <c r="F25" s="41">
         <v>2</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <v>2</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>4</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>3</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>2</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>1</v>
       </c>
-      <c r="L25" s="42">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
-        <v>0</v>
-      </c>
-      <c r="N25" s="42">
-        <v>0</v>
-      </c>
-      <c r="O25" s="42">
-        <v>0</v>
-      </c>
-      <c r="P25" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="42">
-        <v>0</v>
-      </c>
-      <c r="R25" s="42">
+      <c r="L25" s="41">
+        <v>0</v>
+      </c>
+      <c r="M25" s="41">
+        <v>0</v>
+      </c>
+      <c r="N25" s="41">
+        <v>0</v>
+      </c>
+      <c r="O25" s="41">
+        <v>0</v>
+      </c>
+      <c r="P25" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="41">
+        <v>0</v>
+      </c>
+      <c r="R25" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6039,75 +6312,75 @@
       <c r="A26" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
     </row>
     <row r="27" spans="1:18" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="48">
         <v>2</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="49">
+      <c r="E27" s="50"/>
+      <c r="F27" s="48">
         <v>2</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="48">
         <v>2</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="48">
         <v>2</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="48">
         <v>2</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="48">
         <v>2</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="48">
         <v>2</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="48">
         <v>2</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="48">
         <v>2</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="48">
         <v>2</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="48">
         <v>1</v>
       </c>
-      <c r="P27" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="42">
-        <v>0</v>
-      </c>
-      <c r="R27" s="42">
+      <c r="P27" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="41">
+        <v>0</v>
+      </c>
+      <c r="R27" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6115,75 +6388,75 @@
       <c r="A28" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
     </row>
     <row r="29" spans="1:18" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="48">
         <v>1</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="44" t="s">
+      <c r="C29" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="49">
+      <c r="E29" s="50"/>
+      <c r="F29" s="48">
         <v>1</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="48">
         <v>1</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="48">
         <v>1</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="48">
         <v>1</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="48">
         <v>1</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="48">
         <v>1</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="48">
         <v>1</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M29" s="48">
         <v>1</v>
       </c>
-      <c r="N29" s="49">
-        <v>0</v>
-      </c>
-      <c r="O29" s="49">
-        <v>0</v>
-      </c>
-      <c r="P29" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="42">
-        <v>0</v>
-      </c>
-      <c r="R29" s="42">
+      <c r="N29" s="48">
+        <v>0</v>
+      </c>
+      <c r="O29" s="48">
+        <v>0</v>
+      </c>
+      <c r="P29" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="41">
+        <v>0</v>
+      </c>
+      <c r="R29" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6191,53 +6464,53 @@
       <c r="A30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="48">
         <v>2</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="44" t="s">
+      <c r="C30" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="49">
+      <c r="E30" s="50"/>
+      <c r="F30" s="48">
         <v>2</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="48">
         <v>2</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="48">
         <v>2</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="48">
         <v>2</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="48">
         <v>2</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="48">
         <v>1</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="48">
         <v>1</v>
       </c>
-      <c r="M30" s="49">
-        <v>0</v>
-      </c>
-      <c r="N30" s="49">
-        <v>0</v>
-      </c>
-      <c r="O30" s="49">
-        <v>0</v>
-      </c>
-      <c r="P30" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="42">
-        <v>0</v>
-      </c>
-      <c r="R30" s="42">
+      <c r="M30" s="48">
+        <v>0</v>
+      </c>
+      <c r="N30" s="48">
+        <v>0</v>
+      </c>
+      <c r="O30" s="48">
+        <v>0</v>
+      </c>
+      <c r="P30" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="41">
+        <v>0</v>
+      </c>
+      <c r="R30" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6245,53 +6518,53 @@
       <c r="A31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="48">
         <v>2</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="44" t="s">
+      <c r="C31" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="49">
+      <c r="E31" s="50"/>
+      <c r="F31" s="48">
         <v>2</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="48">
         <v>2</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="48">
         <v>2</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="48">
         <v>2</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="48">
         <v>2</v>
       </c>
-      <c r="K31" s="42">
-        <v>0</v>
-      </c>
-      <c r="L31" s="42">
-        <v>0</v>
-      </c>
-      <c r="M31" s="42">
-        <v>0</v>
-      </c>
-      <c r="N31" s="42">
-        <v>0</v>
-      </c>
-      <c r="O31" s="42">
-        <v>0</v>
-      </c>
-      <c r="P31" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="42">
-        <v>0</v>
-      </c>
-      <c r="R31" s="42">
+      <c r="K31" s="41">
+        <v>0</v>
+      </c>
+      <c r="L31" s="41">
+        <v>0</v>
+      </c>
+      <c r="M31" s="41">
+        <v>0</v>
+      </c>
+      <c r="N31" s="41">
+        <v>0</v>
+      </c>
+      <c r="O31" s="41">
+        <v>0</v>
+      </c>
+      <c r="P31" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="41">
+        <v>0</v>
+      </c>
+      <c r="R31" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6299,75 +6572,75 @@
       <c r="A32" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
     </row>
     <row r="33" spans="1:18" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="48">
         <v>10</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="44" t="s">
+      <c r="C33" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="49">
+      <c r="E33" s="50"/>
+      <c r="F33" s="48">
         <v>10</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="48">
         <v>8</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="48">
         <v>8</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="48">
         <v>8</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="48">
         <v>8</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="48">
         <v>4</v>
       </c>
-      <c r="L33" s="49">
+      <c r="L33" s="48">
         <v>4</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="48">
         <v>4</v>
       </c>
-      <c r="N33" s="49">
+      <c r="N33" s="48">
         <v>2</v>
       </c>
-      <c r="O33" s="49">
+      <c r="O33" s="48">
         <v>1</v>
       </c>
-      <c r="P33" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="42">
-        <v>0</v>
-      </c>
-      <c r="R33" s="42">
+      <c r="P33" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="41">
+        <v>0</v>
+      </c>
+      <c r="R33" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6375,53 +6648,53 @@
       <c r="A34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <v>10</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="44" t="s">
+      <c r="C34" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="42">
+      <c r="E34" s="44"/>
+      <c r="F34" s="41">
         <v>10</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <v>10</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <v>10</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <v>7</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="41">
         <v>5</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <v>5</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="41">
         <v>3</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="41">
         <v>1</v>
       </c>
-      <c r="N34" s="42">
+      <c r="N34" s="41">
         <v>3</v>
       </c>
-      <c r="O34" s="42">
-        <v>0</v>
-      </c>
-      <c r="P34" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="42">
-        <v>0</v>
-      </c>
-      <c r="R34" s="42">
+      <c r="O34" s="41">
+        <v>0</v>
+      </c>
+      <c r="P34" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="41">
+        <v>0</v>
+      </c>
+      <c r="R34" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6429,75 +6702,75 @@
       <c r="A35" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="41">
         <v>5</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="42">
+      <c r="E36" s="44"/>
+      <c r="F36" s="41">
         <v>5</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="41">
         <v>5</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <v>4</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="41">
         <v>4</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="41">
         <v>3</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <v>2</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="41">
         <v>1</v>
       </c>
-      <c r="M36" s="42">
-        <v>0</v>
-      </c>
-      <c r="N36" s="42">
-        <v>0</v>
-      </c>
-      <c r="O36" s="42">
-        <v>0</v>
-      </c>
-      <c r="P36" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="42">
-        <v>0</v>
-      </c>
-      <c r="R36" s="42">
+      <c r="M36" s="41">
+        <v>0</v>
+      </c>
+      <c r="N36" s="41">
+        <v>0</v>
+      </c>
+      <c r="O36" s="41">
+        <v>0</v>
+      </c>
+      <c r="P36" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="41">
+        <v>0</v>
+      </c>
+      <c r="R36" s="41">
         <v>0</v>
       </c>
     </row>
@@ -6505,359 +6778,359 @@
       <c r="A37" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="41">
         <v>10</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="44" t="s">
+      <c r="C38" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="42">
+      <c r="E38" s="44"/>
+      <c r="F38" s="41">
         <v>10</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="41">
         <v>9</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>9</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="41">
         <v>7</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="41">
         <v>6</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <v>4</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="41">
         <v>4</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="41">
         <v>5</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N38" s="41">
         <v>4</v>
       </c>
-      <c r="O38" s="42">
+      <c r="O38" s="41">
         <v>2</v>
       </c>
-      <c r="P38" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="42">
-        <v>0</v>
-      </c>
-      <c r="R38" s="42">
+      <c r="P38" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="41">
+        <v>0</v>
+      </c>
+      <c r="R38" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="54">
         <f>SUM(F9:F39)</f>
         <v>129</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="54">
         <f t="shared" ref="G40:L40" si="3">SUM(G9:G39)</f>
         <v>115</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="54">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="I40" s="55">
+      <c r="I40" s="54">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="J40" s="55">
+      <c r="J40" s="54">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K40" s="54">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="L40" s="55">
+      <c r="L40" s="54">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M40" s="55">
+      <c r="M40" s="54">
         <f t="shared" ref="M40" si="4">SUM(M9:M39)</f>
         <v>61</v>
       </c>
-      <c r="N40" s="55">
+      <c r="N40" s="54">
         <f t="shared" ref="N40" si="5">SUM(N9:N39)</f>
         <v>52</v>
       </c>
-      <c r="O40" s="55">
+      <c r="O40" s="54">
         <f t="shared" ref="O40" si="6">SUM(O9:O39)</f>
         <v>22</v>
       </c>
-      <c r="P40" s="55">
+      <c r="P40" s="54">
         <f t="shared" ref="P40" si="7">SUM(P9:P39)</f>
         <v>7</v>
       </c>
-      <c r="Q40" s="55">
+      <c r="Q40" s="54">
         <f t="shared" ref="Q40" si="8">SUM(Q9:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="55">
+      <c r="R40" s="54">
         <f t="shared" ref="R40" si="9">SUM(R9:R39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="44" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44">
+      <c r="F41" s="43"/>
+      <c r="G41" s="43">
         <f>F40-G40</f>
         <v>14</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="43">
         <f t="shared" ref="H41:P41" si="10">G40-H40</f>
         <v>-2</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="43">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="43">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="43">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="43">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="43">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="N41" s="44">
+      <c r="N41" s="43">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="43">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="P41" s="44">
+      <c r="P41" s="43">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q41" s="43">
         <f t="shared" ref="Q41" si="11">P40-Q40</f>
         <v>7</v>
       </c>
-      <c r="R41" s="44">
+      <c r="R41" s="43">
         <f t="shared" ref="R41" si="12">Q40-R40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="56" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="5">
         <f>SUM(B9:B40)</f>
         <v>129</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
     </row>
     <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
     </row>
     <row r="44" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <f>COUNTIF($D$9:$D$40,"Not Started")</f>
         <v>0</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <f>COUNTIF($D$9:$D$40,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <f>COUNTIF($D$9:$D$40,"Complete")</f>
         <v>23</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6972,17 +7245,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="79"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="79"/>
+      <c r="D13" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6993,311 +7266,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="66"/>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="76"/>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="75"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="11" spans="1:6" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="12" spans="1:6" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="66"/>
-    </row>
-    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="66"/>
-    </row>
-    <row r="6" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="66"/>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="66"/>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="66"/>
-    </row>
-    <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="66"/>
-    </row>
-    <row r="10" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="66"/>
-    </row>
-    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="66"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" s="75"/>
+    </row>
+    <row r="19" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" s="76"/>
+    </row>
+    <row r="20" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" s="75"/>
+    </row>
+    <row r="21" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F21" s="76"/>
+    </row>
+    <row r="22" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" s="75"/>
+    </row>
+    <row r="23" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" s="76"/>
+    </row>
+    <row r="24" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F24" s="75"/>
+    </row>
+    <row r="25" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F26" s="75"/>
+    </row>
+    <row r="27" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" s="76"/>
+    </row>
+    <row r="28" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" s="75"/>
+    </row>
+    <row r="29" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F29" s="76"/>
+    </row>
+    <row r="50" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F50" s="76"/>
+    </row>
+    <row r="51" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F51" s="76"/>
+    </row>
+    <row r="52" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F52" s="76"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C101">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C26">
       <formula1>"True,False,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7323,8 +7559,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
-        <v>108</v>
+      <c r="A1" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -8032,94 +8268,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="70">
+      <c r="A1" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="65">
         <v>41899</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -8127,111 +8363,111 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="A11" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="A12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
